--- a/Source/Solar-Calculator-Solution/Innovative.SolarCalculator.Tests/Data/SolarCalculationsTestData.xlsx
+++ b/Source/Solar-Calculator-Solution/Innovative.SolarCalculator.Tests/Data/SolarCalculationsTestData.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\OneDrive\Documents\GitHub\Solar-Calculator\Source\Solar-Calculator-Solution\Innovative.SolarCalculator.Tests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/porrey/Documents/GitHub/Solar-Calculator/Source/Solar-Calculator-Solution/Innovative.SolarCalculator.Tests/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_247A4B3484B5CC24B91AC4A5AF173D6C4DDC2489" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{D9841DC3-3F9D-49A7-9D53-6E271F6B584E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4AF1AA-8768-CF4F-97CD-5D759A930D01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30380" windowHeight="18180" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculations" sheetId="1" r:id="rId1"/>
-    <sheet name="ExcelFormulas" sheetId="2" r:id="rId2"/>
-    <sheet name="DateValue" sheetId="3" r:id="rId3"/>
+    <sheet name="SolarCalculationsTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="CsharpExcelTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="DateValueTestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -653,46 +645,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" style="7" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" style="7" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" style="10" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24" style="10" customWidth="1"/>
-    <col min="30" max="30" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" style="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -794,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>41.6</v>
       </c>
@@ -924,7 +914,7 @@
         <v>356.81019044967275</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>35</v>
       </c>
@@ -1054,7 +1044,7 @@
         <v>348.15037466946842</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>61</v>
       </c>
@@ -1184,7 +1174,7 @@
         <v>337.26419358991586</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>33</v>
       </c>
@@ -1314,7 +1304,7 @@
         <v>326.88884152667777</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -1444,7 +1434,7 @@
         <v>327.4518912078056</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>33</v>
       </c>
@@ -1574,7 +1564,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>46</v>
       </c>
@@ -1704,7 +1694,7 @@
         <v>336.35122926711495</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>42</v>
       </c>
@@ -1834,7 +1824,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>40</v>
       </c>
@@ -1964,7 +1954,7 @@
         <v>352.3362986202909</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>41</v>
       </c>
@@ -2094,7 +2084,7 @@
         <v>358.83756954606622</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>32</v>
       </c>
@@ -2224,7 +2214,7 @@
         <v>183.34513261276547</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>39</v>
       </c>
@@ -2354,7 +2344,7 @@
         <v>354.28356704495212</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>42</v>
       </c>
@@ -2484,7 +2474,7 @@
         <v>337.34197639797196</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>21</v>
       </c>
@@ -2614,7 +2604,7 @@
         <v>305.94153169860999</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>29</v>
       </c>
@@ -2744,7 +2734,7 @@
         <v>331.40024988173275</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>39</v>
       </c>
@@ -2874,7 +2864,7 @@
         <v>329.42502835700969</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>32</v>
       </c>
@@ -3004,7 +2994,7 @@
         <v>349.31320273220717</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>39</v>
       </c>
@@ -3134,7 +3124,7 @@
         <v>343.37366890460061</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>34</v>
       </c>
@@ -3264,7 +3254,7 @@
         <v>355.7322787047159</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>43</v>
       </c>
@@ -3394,7 +3384,7 @@
         <v>356.9474677757832</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>25</v>
       </c>
@@ -3524,7 +3514,7 @@
         <v>323.84996702391732</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>44</v>
       </c>
@@ -3654,7 +3644,7 @@
         <v>347.62265025620934</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>29</v>
       </c>
@@ -3784,7 +3774,7 @@
         <v>347.39485492095537</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>40</v>
       </c>
@@ -3914,7 +3904,7 @@
         <v>354.47553536413102</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>35</v>
       </c>
@@ -4044,7 +4034,7 @@
         <v>333.68550522247915</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>39</v>
       </c>
@@ -4174,7 +4164,7 @@
         <v>352.05473365579218</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>33</v>
       </c>
@@ -4304,7 +4294,7 @@
         <v>331.5139131226631</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>40</v>
       </c>
@@ -4434,7 +4424,7 @@
         <v>343.9179088789873</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>43</v>
       </c>
@@ -4564,7 +4554,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>45</v>
       </c>
@@ -4694,7 +4684,7 @@
         <v>349.78452426270769</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>35</v>
       </c>
@@ -4824,7 +4814,7 @@
         <v>343.11617653859469</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>33</v>
       </c>
@@ -4954,7 +4944,7 @@
         <v>344.27272072584242</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>38</v>
       </c>
@@ -5084,7 +5074,7 @@
         <v>351.76264650060165</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>29</v>
       </c>
@@ -5214,7 +5204,7 @@
         <v>323.26766564586467</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -5344,7 +5334,7 @@
         <v>358.31919002857626</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>37</v>
       </c>
@@ -5474,7 +5464,7 @@
         <v>346.7406226998408</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>47</v>
       </c>
@@ -5604,7 +5594,7 @@
         <v>350.31519527994703</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5734,7 +5724,7 @@
         <v>347.20974040731107</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>-39</v>
       </c>
@@ -5876,20 +5866,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="29" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="19" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="31.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="31.5" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5546875" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="18"/>
+    <col min="11" max="11" width="31.5" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
@@ -5924,924 +5914,924 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <f ca="1">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>43.630460996942936</v>
+        <v>343.26045269431955</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>146.31658983262872</v>
+        <v>98.212243880539916</v>
       </c>
       <c r="C2" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>3.8008755696437548</v>
+        <v>2.9834011556852533</v>
       </c>
       <c r="D2" s="17">
         <f ca="1">RADIANS(A2)</f>
-        <v>0.76149519855962189</v>
+        <v>5.9910250914021166</v>
       </c>
       <c r="E2" s="17">
         <f ca="1">DEGREES(C2)</f>
-        <v>217.77412859496974</v>
+        <v>170.93629481521725</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" ref="F2:F21" ca="1" si="0">MOD(A2,B2)</f>
-        <v>43.630460996942936</v>
+        <v>48.623721052699807</v>
       </c>
       <c r="G2" s="17">
         <f ca="1">SIN(A2)</f>
-        <v>-0.34462206077339985</v>
+        <v>-0.7358041933006001</v>
       </c>
       <c r="H2" s="17">
         <f ca="1">ASIN(G2)</f>
-        <v>-0.3518361533141689</v>
+        <v>-0.82685345303209079</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" ref="I2:I21" ca="1" si="1">COS(A2)</f>
-        <v>0.93874151672773853</v>
+        <v>-0.6771943510700994</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">ACOS(I2)</f>
-        <v>0.35183615331416895</v>
+        <v>2.3147392005577023</v>
       </c>
       <c r="K2" s="17">
         <f ca="1">TAN(A2)</f>
-        <v>-0.36711070580395982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.086548037705698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <f t="shared" ref="A3:A21" ca="1" si="2">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>27.951594658402591</v>
+        <v>10.638052479145726</v>
       </c>
       <c r="B3" s="17">
         <f t="shared" ref="B3:B21" ca="1" si="3">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>285.77170421474858</v>
+        <v>29.212651799942332</v>
       </c>
       <c r="C3" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>5.8510366042042037</v>
+        <v>5.2749745930345213</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D21" ca="1" si="4">RADIANS(A3)</f>
-        <v>0.48784735797198492</v>
+        <v>0.18566904176103832</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" ref="E3:E21" ca="1" si="5">DEGREES(C3)</f>
-        <v>335.23970319745797</v>
+        <v>302.23378121961707</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>27.951594658402591</v>
+        <v>10.638052479145726</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:G21" ca="1" si="6">SIN(A3)</f>
-        <v>0.31716554556327542</v>
+        <v>-0.93676695195102866</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H21" ca="1" si="7">ASIN(G3)</f>
-        <v>0.32273922390554793</v>
+        <v>-1.213274518376346</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94837018969785736</v>
+        <v>-0.34995382228571115</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" ref="J3:J21" ca="1" si="8">ACOS(I3)</f>
-        <v>2.8188534296842453</v>
+        <v>1.9283181352134471</v>
       </c>
       <c r="K3" s="17">
         <f t="shared" ref="K3:K21" ca="1" si="9">TAN(A3)</f>
-        <v>-0.33443221751236368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.6768301767146538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>36.214790670722159</v>
+        <v>193.36454823501049</v>
       </c>
       <c r="B4" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>141.89022512382303</v>
+        <v>300.87712355608863</v>
       </c>
       <c r="C4" s="17">
         <f t="shared" ref="C4:C21" ca="1" si="10">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>4.73417398726437</v>
+        <v>3.0272330284000901</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63206733512462732</v>
+        <v>3.3748480233323233</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>271.24818895086912</v>
+        <v>173.44767612993203</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>36.214790670722159</v>
+        <v>193.36454823501049</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.99626335324208515</v>
+        <v>-0.98776325194665526</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4843211723553609</v>
+        <v>-1.4141962875566925</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6367418549105138E-2</v>
+        <v>0.15596075821747124</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4843211723553593</v>
+        <v>1.4141962875566922</v>
       </c>
       <c r="K4" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-11.535175763944466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.3334088859027018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>309.24166623272237</v>
+        <v>133.0734371124293</v>
       </c>
       <c r="B5" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>189.69838900016288</v>
+        <v>25.583966750808138</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6594182271534019</v>
+        <v>2.75862926599775</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3972852601143746</v>
+        <v>2.3225696245575067</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>152.37344037605359</v>
+        <v>158.05781418294322</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>119.54327723255949</v>
+        <v>5.1536033583886152</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9790181841031399</v>
+        <v>0.90293296905358</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3655861809226291</v>
+        <v>1.1265456616579874</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20377290103296491</v>
+        <v>0.42978140187319275</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3655861809226288</v>
+        <v>1.1265456616579872</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8044572126141603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.1009121500329391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>165.90311042009168</v>
+        <v>139.23639096952166</v>
       </c>
       <c r="B6" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>92.445551852326361</v>
+        <v>4.9108876791357945</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.684058643148246</v>
+        <v>0.37315888467654679</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8955555161303126</v>
+        <v>2.4301334610122525</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>325.67257075725178</v>
+        <v>21.380429179775138</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>73.457558567765318</v>
+        <v>1.731535953719419</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56571511381957285</v>
+        <v>0.84486577084953973</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.60130022016736295</v>
+        <v>1.0063142115707624</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.82460075794053678</v>
+        <v>0.53497834465220473</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5402924334224304</v>
+        <v>1.0063142115707622</v>
       </c>
       <c r="K6" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.68604728818399585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5792522805737048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>80.706261263540725</v>
+        <v>300.56583195391914</v>
       </c>
       <c r="B7" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>260.72164428114826</v>
+        <v>265.4371264312835</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7894247671152428</v>
+        <v>2.5559026540491687</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4085899860235447</v>
+        <v>5.2458633865918705</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>389.00538447729525</v>
+        <v>146.4424349233031</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>80.706261263540725</v>
+        <v>35.128705522635642</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.82778478037592884</v>
+        <v>-0.85578316262249821</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.97514772979389952</v>
+        <v>-1.0270627907010073</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56104577119694554</v>
+        <v>0.51733468719179732</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9751477297938993</v>
+        <v>1.027062790701007</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.475431814787441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.6542157017691412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>306.17455979381111</v>
+        <v>46.479982344180762</v>
       </c>
       <c r="B8" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>331.92983430731721</v>
+        <v>299.1688873337315</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.4214435857530283</v>
+        <v>2.8028244485046843</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3437541542462546</v>
+        <v>0.81122872817478653</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>253.33005681883759</v>
+        <v>160.59001161540095</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>306.17455979381111</v>
+        <v>46.479982344180762</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.99146778769630139</v>
+        <v>0.60032503115302671</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.440072395601169</v>
+        <v>0.64390745966613672</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13035193117327343</v>
+        <v>-0.79975612343458646</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7015202579886242</v>
+        <v>2.4976851939236564</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6060843807397776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.75063511683399875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>60.164975472896359</v>
+        <v>281.57707551146518</v>
       </c>
       <c r="B9" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>119.64108035563747</v>
+        <v>271.37118644561247</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33608110716274975</v>
+        <v>3.0500417181178814</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0500769163836738</v>
+        <v>4.914447065811764</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>19.256029014509501</v>
+        <v>174.75451778698491</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>60.164975472896359</v>
+        <v>10.205889065852716</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.45708502882586638</v>
+        <v>-0.91928629772294812</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.47471505469028707</v>
+        <v>-1.1662633116162096</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88942300196433921</v>
+        <v>0.39358951055488661</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6668775988995064</v>
+        <v>1.1662633116162096</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51391185950483531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.3356473510356732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>164.26610223973549</v>
+        <v>186.62351052295716</v>
       </c>
       <c r="B10" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>53.024546813287579</v>
+        <v>186.42489240747167</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1393943501026467</v>
+        <v>5.6340485537051581</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8669843335010161</v>
+        <v>3.2571947202558871</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>294.46560551426228</v>
+        <v>322.80720369909108</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1924617998727527</v>
+        <v>0.19861811548548758</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78536420579884014</v>
+        <v>-0.95496564068674217</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90328425306624005</v>
+        <v>-1.2695439611593604</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61903397665229742</v>
+        <v>-0.29671640518811893</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90328425306623994</v>
+        <v>1.8720486924304327</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2686932146213488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.2184457077164028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>51.026307355409145</v>
+        <v>287.4760526962246</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>226.05932962621483</v>
+        <v>332.19463876735114</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6028295194230093</v>
+        <v>3.3316716879667823</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89057706848648999</v>
+        <v>5.0174036401858411</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>378.31426430733205</v>
+        <v>190.89072644372357</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>51.026307355409145</v>
+        <v>287.4760526962246</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68951912640778201</v>
+        <v>-0.99979345647760676</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.76082489797245301</v>
+        <v>-1.5504714340363774</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72426747429237026</v>
+        <v>2.032349341426776E-2</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7608248979724529</v>
+        <v>1.5504714340363788</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95202276904877114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-49.19397645366022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>99.830526338902629</v>
+        <v>72.922105388288429</v>
       </c>
       <c r="B12" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>192.24082285882113</v>
+        <v>199.78857030600952</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0350404382212064</v>
+        <v>1.3297110714641707</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7423713786127715</v>
+        <v>1.2727308365119312</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>345.78234630085797</v>
+        <v>76.186832366715578</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>99.830526338902629</v>
+        <v>72.922105388288429</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.64455306667442447</v>
+        <v>-0.61743234177151296</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.7004385759707541</v>
+        <v>-0.6654743557231847</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76455957533772012</v>
+        <v>-0.78662399107486269</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7004385759707541</v>
+        <v>2.4761182978666083</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.84303838113558849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.78491420141894974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>72.00288552646586</v>
+        <v>125.75973210732127</v>
       </c>
       <c r="B13" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>311.90230490974398</v>
+        <v>86.375530100506808</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.7207105109192558</v>
+        <v>2.7326752083664338</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2566874233734</v>
+        <v>2.1949213916987831</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>270.47678857871989</v>
+        <v>156.57075621942948</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>72.00288552646586</v>
+        <v>39.384202006814462</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25103128276428727</v>
+        <v>9.5878456081036706E-2</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25374550609938418</v>
+        <v>9.602596372954017E-2</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.96797897449981651</v>
+        <v>0.99539304883021795</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8878471474904082</v>
+        <v>9.602596372954042E-2</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.25933547047755101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.63222077888857E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>281.53425881968207</v>
+        <v>310.70878383734464</v>
       </c>
       <c r="B14" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>336.3894872783568</v>
+        <v>119.06039974729478</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4282585392266696</v>
+        <v>6.1218662391918626</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9136997735653365</v>
+        <v>5.4228912928290054</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>81.833186351208298</v>
+        <v>350.75709824931943</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>281.53425881968207</v>
+        <v>72.587984342755078</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.93529082900036897</v>
+        <v>0.30400028008491198</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2090800033993256</v>
+        <v>0.30888886804489035</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35388001524217566</v>
+        <v>-0.95267194233287622</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2090800033993259</v>
+        <v>2.8327037855449024</v>
       </c>
       <c r="K14" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.6429602936472927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.31910279559665067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>331.32589218456633</v>
+        <v>58.1839946619424</v>
       </c>
       <c r="B15" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>89.326208873274112</v>
+        <v>278.51884625798328</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3243824278493719</v>
+        <v>5.3820895531697994</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7827277157284307</v>
+        <v>1.0155022788136998</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>305.06464162938755</v>
+        <v>308.37101635808057</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>63.347265564743992</v>
+        <v>58.1839946619424</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.99371970575475854</v>
+        <v>0.99791862515467866</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4586635576380391</v>
+        <v>1.5062657562636719</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11189792846463309</v>
+        <v>-6.4485793547074843E-2</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6829290959517551</v>
+        <v>1.6353268973261215</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8805907257598378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-15.475015042285161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>326.28191291497245</v>
+        <v>333.53471162454724</v>
       </c>
       <c r="B16" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>356.19113973051128</v>
+        <v>284.69352168075858</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9181314638040736</v>
+        <v>0.15824009100105285</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6946936700716781</v>
+        <v>5.8212788875381545</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>167.19661694030637</v>
+        <v>9.0664893641264062</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>326.28191291497245</v>
+        <v>48.841189943788663</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.42930494852829809</v>
+        <v>0.5019832419178295</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.44372305836604503</v>
+        <v>0.5258903440291588</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90315959894645159</v>
+        <v>0.86487734669932581</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44372305836604498</v>
+        <v>0.52589034402915869</v>
       </c>
       <c r="K16" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.47533675003741133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.58040974692373781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>30.273139501092885</v>
+        <v>163.04050603447683</v>
       </c>
       <c r="B17" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>23.483320776873729</v>
+        <v>110.68539134848069</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82450126213515762</v>
+        <v>6.1494352475942904</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52836595920962437</v>
+        <v>2.8455936444193042</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>47.24044252355408</v>
+        <v>352.33668607613924</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7898187242191561</v>
+        <v>52.355114685996142</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.90979381609441845</v>
+        <v>-0.31676030486891965</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1427870348050473</v>
+        <v>-0.32231195219241399</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41506049221331043</v>
+        <v>0.94850561899197472</v>
       </c>
       <c r="J17" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1427870348050473</v>
+        <v>0.32231195219241382</v>
       </c>
       <c r="K17" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.1919547467477383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.33395722547807044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>357.49178279783706</v>
+        <v>297.76430408593404</v>
       </c>
       <c r="B18" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>221.512704896081</v>
+        <v>109.11406025677935</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.8583942945157235</v>
+        <v>4.1471037316305672</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>6.239408658646683</v>
+        <v>5.1969675012091532</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>278.36548828619004</v>
+        <v>237.61154102538592</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>135.97907790175606</v>
+        <v>79.536183572375336</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.60501102286752917</v>
+        <v>0.63421904086706893</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.6497797113993683</v>
+        <v>0.6869980050963147</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79621709489861248</v>
+        <v>-0.77315341828233242</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.64977971139936819</v>
+        <v>2.4545946484934786</v>
       </c>
       <c r="K18" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.75985686158191457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.82030167088451156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>349.60276044360006</v>
+        <v>280.46581064417603</v>
       </c>
       <c r="B19" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>330.32275563611813</v>
+        <v>295.19193757698139</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8901823069406056</v>
+        <v>6.7658094423070834</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1017192438018126</v>
+        <v>4.8950518350158303</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>337.48258675032753</v>
+        <v>387.65232603395714</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19.28000480748193</v>
+        <v>280.46581064417603</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.77453264264708777</v>
+        <v>-0.76048811141280315</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.88597589513301211</v>
+        <v>-0.8640644746844327</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63253394017563891</v>
+        <v>-0.64935185562204101</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2556167584567812</v>
+        <v>2.2775281789053605</v>
       </c>
       <c r="K19" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2244918311134725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1711495159805159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>16.909279449556092</v>
+        <v>339.7059463694639</v>
       </c>
       <c r="B20" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>343.78645298039783</v>
+        <v>116.21847760084113</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6635917792177448</v>
+        <v>4.6453897663226877</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29512260053456824</v>
+        <v>5.9289872527504226</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>381.79568534724785</v>
+        <v>266.16122780355374</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16.909279449556092</v>
+        <v>107.26899116778165</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.93251520713977476</v>
+        <v>0.40221948095302479</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2013161816071252</v>
+        <v>0.41393978176623236</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36113070826649862</v>
+        <v>0.91554327540640001</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9402764719826677</v>
+        <v>0.41393978176623247</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5822096703324919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.43932328679327998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>304.1402344809789</v>
+        <v>249.33368694784522</v>
       </c>
       <c r="B21" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>21.750679703172011</v>
+        <v>300.38061933295558</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>3.537304226763557</v>
+        <v>5.0651751208863276</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3082484794806692</v>
+        <v>4.3516937733767103</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>202.67260304733892</v>
+        <v>290.21315692145311</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21.381398339742759</v>
+        <v>249.33368694784522</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55988990266355854</v>
+        <v>-0.91189068979386767</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59425291723103979</v>
+        <v>-1.1478673142515572</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.82856701412462164</v>
+        <v>-0.410433149084311</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5473397363587531</v>
+        <v>1.9937253393382361</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.67573279302589717</v>
+        <v>2.2217764131097204</v>
       </c>
     </row>
   </sheetData>
@@ -6856,14 +6846,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="22"/>
+    <col min="2" max="2" width="18.83203125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6871,7 +6861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1.03125</v>
       </c>
@@ -6880,354 +6870,354 @@
         <v>1.03125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <f ca="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>929.03125</v>
+        <v>27074.03125</v>
       </c>
       <c r="B3" s="23">
         <f t="shared" ref="B3:B37" ca="1" si="0">A3</f>
-        <v>929.03125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27074.03125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A37" ca="1" si="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>37702.03125</v>
+        <v>1450.03125</v>
       </c>
       <c r="B4" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>37702.03125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1450.03125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>34829.03125</v>
+        <v>32558.03125</v>
       </c>
       <c r="B5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>34829.03125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32558.03125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>37634.03125</v>
+        <v>5092.03125</v>
       </c>
       <c r="B6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>37634.03125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5092.03125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>15107.03125</v>
+        <v>34275.03125</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>15107.03125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34275.03125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>23586.03125</v>
+        <v>34317.03125</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>23586.03125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34317.03125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>33782.03125</v>
+        <v>39560.03125</v>
       </c>
       <c r="B9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>33782.03125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39560.03125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>10490.03125</v>
+        <v>8529.03125</v>
       </c>
       <c r="B10" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>10490.03125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8529.03125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.03125</v>
+        <v>37349.03125</v>
       </c>
       <c r="B11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>12.03125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37349.03125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>29303.03125</v>
+        <v>9490.03125</v>
       </c>
       <c r="B12" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>29303.03125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9490.03125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>20839.03125</v>
+        <v>22392.03125</v>
       </c>
       <c r="B13" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>20839.03125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22392.03125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>1251.03125</v>
+        <v>33851.03125</v>
       </c>
       <c r="B14" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>1251.03125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33851.03125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>31647.03125</v>
+        <v>8299.03125</v>
       </c>
       <c r="B15" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>31647.03125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8299.03125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>17140.03125</v>
+        <v>9252.03125</v>
       </c>
       <c r="B16" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>17140.03125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9252.03125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32359.03125</v>
+        <v>35280.03125</v>
       </c>
       <c r="B17" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32359.03125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35280.03125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>11574.03125</v>
+        <v>18182.03125</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>11574.03125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18182.03125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>29708.03125</v>
+        <v>13542.03125</v>
       </c>
       <c r="B19" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>29708.03125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13542.03125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>8799.03125</v>
+        <v>25468.03125</v>
       </c>
       <c r="B20" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>8799.03125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25468.03125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32610.03125</v>
+        <v>14307.03125</v>
       </c>
       <c r="B21" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32610.03125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14307.03125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>40332.03125</v>
+        <v>24641.03125</v>
       </c>
       <c r="B22" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>40332.03125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24641.03125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>10738.03125</v>
+        <v>33569.03125</v>
       </c>
       <c r="B23" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>10738.03125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33569.03125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>22945.03125</v>
+        <v>17001.03125</v>
       </c>
       <c r="B24" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>22945.03125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17001.03125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>22583.03125</v>
+        <v>15379.03125</v>
       </c>
       <c r="B25" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>22583.03125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15379.03125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>20455.03125</v>
+        <v>41945.03125</v>
       </c>
       <c r="B26" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>20455.03125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41945.03125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>22317.03125</v>
+        <v>9677.03125</v>
       </c>
       <c r="B27" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>22317.03125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9677.03125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>29229.03125</v>
+        <v>37450.03125</v>
       </c>
       <c r="B28" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>29229.03125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37450.03125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>16889.03125</v>
+        <v>30500.03125</v>
       </c>
       <c r="B29" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>16889.03125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30500.03125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35799.03125</v>
+        <v>15384.03125</v>
       </c>
       <c r="B30" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35799.03125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15384.03125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>20024.03125</v>
+        <v>10600.03125</v>
       </c>
       <c r="B31" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>20024.03125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10600.03125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>41657.03125</v>
+        <v>19800.03125</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>41657.03125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19800.03125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>40567.03125</v>
+        <v>21872.03125</v>
       </c>
       <c r="B33" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>40567.03125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21872.03125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>14535.03125</v>
+        <v>8956.03125</v>
       </c>
       <c r="B34" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>14535.03125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8956.03125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>15689.03125</v>
+        <v>27492.03125</v>
       </c>
       <c r="B35" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>15689.03125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27492.03125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>11694.03125</v>
+        <v>27258.03125</v>
       </c>
       <c r="B36" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>11694.03125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27258.03125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>15807.03125</v>
+        <v>21059.03125</v>
       </c>
       <c r="B37" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>15807.03125</v>
+        <v>21059.03125</v>
       </c>
     </row>
   </sheetData>
